--- a/data/Behavioral/description/C3SR.xlsx
+++ b/data/Behavioral/description/C3SR.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CMI\HealthyBrainNetwork\HBN_BehavioralData\4rd_release_2018\Data Dictionaries 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85A8AC-FA40-4CD4-8B6F-20670461CEF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="1763" yWindow="1898" windowWidth="15585" windowHeight="7710" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,9 +192,6 @@
     <t>3. It is hard for me to pay attention to details.</t>
   </si>
   <si>
-    <t>5. I can’t pay attention for long.</t>
-  </si>
-  <si>
     <t>7. I make mistakes.</t>
   </si>
   <si>
@@ -236,9 +234,6 @@
     <t>33. I have trouble with reading.</t>
   </si>
   <si>
-    <t>35. I can’t do things right.</t>
-  </si>
-  <si>
     <t>37. My parents are too strict with me.</t>
   </si>
   <si>
@@ -363,12 +358,18 @@
   </si>
   <si>
     <t>Negative Impression Raw Score</t>
+  </si>
+  <si>
+    <t>5. I can't pay attention for long.</t>
+  </si>
+  <si>
+    <t>35. I can't do things right.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -496,15 +497,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -840,43 +841,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="47.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A1" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -884,33 +885,33 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -918,769 +919,769 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
